--- a/src/templateAuditLog.xlsx
+++ b/src/templateAuditLog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masatomix/git/uipath-orchestrator-api-node/src/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F021536-40D1-044A-A138-B5C35C8E27AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D4FAB0-7B9F-7D47-8889-139DF1957F81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="20540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{E608587B-B4D7-AC47-9EA0-EDA90FF582D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,27 +544,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -579,28 +579,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>12</v>
@@ -619,11 +619,8 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="2" t="e">
-        <f>DATEVALUE(MIDB(K2,1,10))+TIMEVALUE(MIDB(K2,12,8))+TIME(9,0,0)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
